--- a/extra/difficulty_of_problems.xlsx
+++ b/extra/difficulty_of_problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\PycharmProjects\rosalind\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65ED842-FDF9-42A2-8FCC-4A2B9881AC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85B4AAC-9AD5-47CF-822A-C99C5C4FD4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EDA834F8-B27D-4B38-B91C-C903DA2A9529}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="12000" windowHeight="12336" activeTab="2" xr2:uid="{EDA834F8-B27D-4B38-B91C-C903DA2A9529}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -18,18 +18,18 @@
     <sheet name="Table 0" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Table 0'!$F$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Table 0'!$F$2:$F$109</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Table 0'!$E$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Table 0'!$E$2:$E$109</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Table 0'!$E$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Table 0'!$E$2:$E$109</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Table 0'!$E$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Table 0'!$E$2:$E$109</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Table 0'!$F$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Table 0'!$F$2:$F$109</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'Table 0'!$E$1</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">'Table 0'!$E$2:$E$109</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -844,7 +844,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -860,20 +860,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
@@ -5934,7 +5927,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5972,7 +5965,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{F270FEA1-5A8D-4BB5-9352-486C21EFAB68}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Participation Magnitude</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6134,7 +6127,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6172,7 +6165,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{54CB01BA-88EE-4216-981E-9B720D82F037}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Solved By</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6206,7 +6199,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6244,7 +6237,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{54CB01BA-88EE-4216-981E-9B720D82F037}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Solved By</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13539,7 +13532,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{704BE59E-4041-4184-B595-C05D883319BD}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{704BE59E-4041-4184-B595-C05D883319BD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:D110" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
@@ -14012,10 +14005,10 @@
     <dataField name="Sum of Difficulty Score" fld="10" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="15">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -14067,7 +14060,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0821EB34-D50F-4D95-90B1-67D5D8DAB121}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0821EB34-D50F-4D95-90B1-67D5D8DAB121}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:D5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -14155,31 +14148,31 @@
     <sortCondition descending="1" ref="J1:J106"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="6" xr3:uid="{65D99C39-6A5D-4DF2-AA8F-A23297A58B1F}" name="Series Number" dataDxfId="13"/>
-    <tableColumn id="1" xr3:uid="{764B77B1-4D0A-445B-932D-472C3BA9237A}" name="ID" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{C1471834-B866-44CA-8F00-2D688767A23D}" name="Title" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{D723FD32-6248-42EC-B00D-E7A60D7D024B}" name="Completed" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{65D99C39-6A5D-4DF2-AA8F-A23297A58B1F}" name="Series Number" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{764B77B1-4D0A-445B-932D-472C3BA9237A}" name="ID" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{C1471834-B866-44CA-8F00-2D688767A23D}" name="Title" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{D723FD32-6248-42EC-B00D-E7A60D7D024B}" name="Completed" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{EF84ADD6-D74D-46E1-868F-5E8B35F13A1C}" name="Solved By"/>
-    <tableColumn id="13" xr3:uid="{FEF17C36-E993-43EB-8904-653051E6B81A}" name="Participation Magnitude" dataDxfId="9">
+    <tableColumn id="13" xr3:uid="{FEF17C36-E993-43EB-8904-653051E6B81A}" name="Participation Magnitude" dataDxfId="7">
       <calculatedColumnFormula>ROUNDDOWN(LOG(Table_0[[#This Row],[Solved By]]/(Table_0[[#This Row],[Correct Ratio]]/100),10),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D0CB5281-72EF-4AE4-8563-7B85F5A80129}" name="Correct Ratio" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{C6D7AA08-8264-4FF4-AC68-751245960FA2}" name="LOG(Solved By)" dataDxfId="7">
+    <tableColumn id="4" xr3:uid="{D0CB5281-72EF-4AE4-8563-7B85F5A80129}" name="Correct Ratio" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{C6D7AA08-8264-4FF4-AC68-751245960FA2}" name="LOG(Solved By)" dataDxfId="5">
       <calculatedColumnFormula>1/(LOG(Table_0[[#This Row],[Solved By]],EXP(1)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{DFB9174A-3F28-4A00-BFBC-409256BE081E}" name="Ratio/100" dataDxfId="6">
+    <tableColumn id="9" xr3:uid="{DFB9174A-3F28-4A00-BFBC-409256BE081E}" name="Ratio/100" dataDxfId="4">
       <calculatedColumnFormula>1/(Table_0[[#This Row],[Correct Ratio]]/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{12641C28-7D7A-4E61-BD49-BE4B56030009}" name="Difficulty Rank" dataDxfId="5" dataCellStyle="Percent">
+    <tableColumn id="12" xr3:uid="{12641C28-7D7A-4E61-BD49-BE4B56030009}" name="Difficulty Rank" dataDxfId="3" dataCellStyle="Percent">
       <calculatedColumnFormula>RANK(Table_0[[#This Row],[Difficulty Score]],Table_0[Difficulty Score],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{24323B7F-7226-45B7-B891-B4E508543F06}" name="Difficulty Score" dataDxfId="4" dataCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{24323B7F-7226-45B7-B891-B4E508543F06}" name="Difficulty Score" dataDxfId="2" dataCellStyle="Percent">
       <calculatedColumnFormula>1/(LOG(Table_0[[#This Row],[Solved By]],EXP(1))*(Table_0[[#This Row],[Correct Ratio]]/100))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{F4DD41C7-9CDF-47F8-8657-16C378F34C4F}" name="Estimated Difficulty (Difficulty_hat)" dataDxfId="3" dataCellStyle="Percent">
+    <tableColumn id="10" xr3:uid="{F4DD41C7-9CDF-47F8-8657-16C378F34C4F}" name="Estimated Difficulty (Difficulty_hat)" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>LOG($P$7*Table_0[[#This Row],[LOG(Solved By)]]+$Q$7*Table_0[[#This Row],[Ratio/100]]+$R$7,EXP(1)*16.67)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{91C24D87-7C73-4CC9-8D65-C9C41D60BB08}" name="hat-real" dataDxfId="2">
+    <tableColumn id="11" xr3:uid="{91C24D87-7C73-4CC9-8D65-C9C41D60BB08}" name="hat-real" dataDxfId="0">
       <calculatedColumnFormula>Table_0[[#This Row],[Estimated Difficulty (Difficulty_hat)]]-Table_0[[#This Row],[Difficulty Score]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14486,7 +14479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7990D050-0CDB-42AA-AD1D-EDC4E0026EF5}">
   <dimension ref="A3:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -15837,13 +15830,13 @@
       <c r="A5" t="s">
         <v>234</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5">
         <v>0.28653619926773954</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5">
         <v>0.17933704618140731</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5">
         <v>0.25999164707493339</v>
       </c>
     </row>
@@ -15857,8 +15850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE3C427-36EF-47D5-B675-B61BD49D431E}">
   <dimension ref="A1:R109"/>
   <sheetViews>
-    <sheetView topLeftCell="N64" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15985,7 +15978,7 @@
       </c>
       <c r="R2" s="8" cm="1">
         <f t="array" ref="R2">SUM(IF(Table_0[Completed]=TRUE,Table_0[Solved By]*(1-(Table_0[Correct Ratio]/100))))</f>
-        <v>141187.78400000001</v>
+        <v>142039.97800000006</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -16550,7 +16543,7 @@
         <v>59</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>4198</v>
